--- a/data/2018_Silverman_et_al-isotope_model.xlsx
+++ b/data/2018_Silverman_et_al-isotope_model.xlsx
@@ -407,19 +407,19 @@
         <v>0.0782849199613612</v>
       </c>
       <c r="D2" t="n">
-        <v>-2.02370836512157</v>
+        <v>-1.85663703414174</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0512092502138108</v>
+        <v>0.0464444315132516</v>
       </c>
       <c r="F2" t="n">
-        <v>2.72298318096244</v>
+        <v>2.55591184998261</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0935463307715349</v>
+        <v>0.0910253476343038</v>
       </c>
       <c r="H2" t="n">
-        <v>0.858889646811031</v>
+        <v>0.807658553218601</v>
       </c>
     </row>
   </sheetData>
